--- a/raw/pone.0196829.s007.xlsx
+++ b/raw/pone.0196829.s007.xlsx
@@ -2497,7 +2497,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2922,7 +2922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>23400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>23400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>144</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33">
       <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>26244</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="33">
       <c r="A19" s="3" t="s">
         <v>62</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33">
       <c r="A20" s="3" t="s">
         <v>66</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>25560</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="33">
       <c r="A21" s="3" t="s">
         <v>69</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
         <v>72</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3" t="s">
         <v>75</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3" t="s">
         <v>79</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3" t="s">
         <v>82</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3" t="s">
         <v>85</v>
       </c>

--- a/raw/pone.0196829.s007.xlsx
+++ b/raw/pone.0196829.s007.xlsx
@@ -3154,7 +3154,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="32.25">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>144</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="32.25">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="32.25">
       <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>26244</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="32.25">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="32.25">
       <c r="A19" s="3" t="s">
         <v>62</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="32.25">
       <c r="A20" s="3" t="s">
         <v>66</v>
       </c>
